--- a/companies/companies.xlsx
+++ b/companies/companies.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My-Github\Companies-Startups\companies\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190CD9AC-BE9A-4769-880B-CB6D8141540C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,1394 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="179">
+  <si>
+    <t>1. ABM Egypt:</t>
+  </si>
+  <si>
+    <t>- Website: E-Marketing Services - promote your business online - ABMEGYPT</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>NLP, Social Media analytics, Search Engine optimization.</t>
+    </r>
+  </si>
+  <si>
+    <t>==========================================================</t>
+  </si>
+  <si>
+    <r>
+      <t>2. Adam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>- Website: adam.ai</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>NLP, machine learning, embedded systems.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Advansy ESC:</t>
+  </si>
+  <si>
+    <t>- Website: Advansys ESC</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Embedded Software, Big data, IoT.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Affectiva:</t>
+  </si>
+  <si>
+    <t>- Website: Home</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Machine learning, Deep learning, Computer vision, Speech(new project(s)).</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Agolo:</t>
+  </si>
+  <si>
+    <t>- Website: Summarization Platform | Agolo</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>NLP, ML, DL.</t>
+    </r>
+  </si>
+  <si>
+    <t>6. Arqamfc:</t>
+  </si>
+  <si>
+    <t>- Website: ArqamFC | Making Sports Smarter </t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Analytics</t>
+    </r>
+  </si>
+  <si>
+    <t>7. Ave labs:</t>
+  </si>
+  <si>
+    <t>- Website: Avelabs</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Deep learning, Machine learning techniques, Computer vision, Image Processing and Signal Processing, Control theory &amp; Artificial Intelligence.</t>
+    </r>
+  </si>
+  <si>
+    <t>8. Avid beam:</t>
+  </si>
+  <si>
+    <t>- Website: AvidBeam</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Machine learning, OCR, Computer vision, DL.</t>
+    </r>
+  </si>
+  <si>
+    <t>9. BADR:</t>
+  </si>
+  <si>
+    <t>- Website: http://badrit.com/</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Big Data.</t>
+    </r>
+  </si>
+  <si>
+    <t>10. Bee Smart Payment Solutions:</t>
+  </si>
+  <si>
+    <t>- Website: Bee:Smart Payment Solutions</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ML, Big Data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11. Botler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>- Website: BOTLER</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Chatbots, ML, NLP, Information retrieval.</t>
+    </r>
+  </si>
+  <si>
+    <t>12. Cequens:</t>
+  </si>
+  <si>
+    <t>- Website: Cequens: Messaging | Video | Voice</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Predictive models, Machine Learning , Chatbots.</t>
+    </r>
+  </si>
+  <si>
+    <t>13. Cognitev(Mena commerce):</t>
+  </si>
+  <si>
+    <t>- Website: Cognitev</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ML,DL, Recommendation systems, IR (Information Retrieval), NLP (Natural - Language Processing).</t>
+    </r>
+  </si>
+  <si>
+    <t>14. Comiot:</t>
+  </si>
+  <si>
+    <t>- Website: Innovation for a connected world</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Iot, Computer vision, machine learning.</t>
+    </r>
+  </si>
+  <si>
+    <t>15. Crowd analyzer:</t>
+  </si>
+  <si>
+    <t>- Website: The 1st Arabic Focused Internationally Recognized Social Media Monitoring Platform</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Big data, Machine learning, Social Media Analysis, Arabic in Social Media Analytics.</t>
+    </r>
+  </si>
+  <si>
+    <t>16. Data Gear BI:</t>
+  </si>
+  <si>
+    <t>- Website: Home - datagearbi.com</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data Mining, Business Intelligent(BI),</t>
+    </r>
+  </si>
+  <si>
+    <t>17. DLC:</t>
+  </si>
+  <si>
+    <t>- Website: Home - dlc.</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Recommendation systems, NLP, Chatbots.</t>
+    </r>
+  </si>
+  <si>
+    <t>18. El menus:</t>
+  </si>
+  <si>
+    <t>- Website: https://www.elmenus.com/</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>recommendation systems, NLP.</t>
+    </r>
+  </si>
+  <si>
+    <t>19. Elves:</t>
+  </si>
+  <si>
+    <t>- Website: elves - Your Personal Little Helper</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ML, Information retrieval, chatbots, NLP.</t>
+    </r>
+  </si>
+  <si>
+    <t>20. Heuro Labs:</t>
+  </si>
+  <si>
+    <t>- Website: Enterprise Cognitive Intelligence for smart and connected world!"</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Artificial Intelligence, Cognitive Computing, Machine Learning, Big Data, Data Fusion and Data Mining.</t>
+    </r>
+  </si>
+  <si>
+    <t>21. HUB 43:</t>
+  </si>
+  <si>
+    <t>- Website: Browser based game development</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> AI for game development.</t>
+    </r>
+  </si>
+  <si>
+    <t>22. IBM Egypt:</t>
+  </si>
+  <si>
+    <t>- Website: IBM - Employment - Egypt</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>NLP(Watson practice team), ML, DL.</t>
+    </r>
+  </si>
+  <si>
+    <t>23. Incorta:</t>
+  </si>
+  <si>
+    <t>- Website: The Fastest Way to Analyze Complex Business Data | Incorta</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> BI, data visualization.</t>
+    </r>
+  </si>
+  <si>
+    <t>24. InnoVision Systems</t>
+  </si>
+  <si>
+    <t>- Website: InnoVision Systems</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Robotics, computer vision.</t>
+    </r>
+  </si>
+  <si>
+    <t>25. Itworx:</t>
+  </si>
+  <si>
+    <t>- Website: Home - ITWORX</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Big Data.</t>
+    </r>
+  </si>
+  <si>
+    <t>26. Knowledge officer</t>
+  </si>
+  <si>
+    <t>- Website: Knowledge Officer - Cutting through the Noise!</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>information retrieval and text summarization for articles on the web. Based mainly for many NLP and recommendation systems.</t>
+    </r>
+  </si>
+  <si>
+    <t>27. Media Gate:</t>
+  </si>
+  <si>
+    <t>- Website: Media Gate</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>AI for game development.</t>
+    </r>
+  </si>
+  <si>
+    <t>28. Mendel:</t>
+  </si>
+  <si>
+    <t>- Website: Mendel.ai</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Artificial Intelligence in Medicine, Machine learning, OCR, NLP.</t>
+    </r>
+  </si>
+  <si>
+    <t>29. Microsoft ATLc:</t>
+  </si>
+  <si>
+    <t>- Website: The Advanced Technology Lab Cairo</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ML, DL, NLP, OCR, Speech, Search engines(Bing team).</t>
+    </r>
+  </si>
+  <si>
+    <t>30. OMS:</t>
+  </si>
+  <si>
+    <t>- Website: OMS Egypt</t>
+  </si>
+  <si>
+    <t>31. Optomatica:</t>
+  </si>
+  <si>
+    <t>- Website: The Power to Perfect</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Machine Learning, AI and Optimization solutions, Analytics .</t>
+    </r>
+  </si>
+  <si>
+    <t>32. Oracle:</t>
+  </si>
+  <si>
+    <t>- Website: Integrated Cloud Applications and Platform Services</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Machine learning, Big data.</t>
+    </r>
+  </si>
+  <si>
+    <t>33. Orange:</t>
+  </si>
+  <si>
+    <t>- Website: Orange Egypt- Shop for Mobile Phones, Lines, Internet Plans, Apps, Music</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ML, Big Data, Data Analytic.</t>
+    </r>
+  </si>
+  <si>
+    <t>34. Pixellion</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Image processing, Machine learning, Deep learning, Computer vision, image recognition in the retail industry</t>
+    </r>
+  </si>
+  <si>
+    <t>35. Raisa Energy:</t>
+  </si>
+  <si>
+    <t>- Website: Raisa Energy LLC</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ML, predictive modeling.</t>
+    </r>
+  </si>
+  <si>
+    <t>36. RDI:</t>
+  </si>
+  <si>
+    <t>- Website: RDI</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Machine learning, Deep learning, Arabic/English OCR, Search engines, Information retrieval, Arabic/English NLP and Arabic/English speech recognition/identification.</t>
+    </r>
+  </si>
+  <si>
+    <t>37. Rology:</t>
+  </si>
+  <si>
+    <t>- Website: Rology</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Computer Vision, Medical Image Processing, Machine Learning.</t>
+    </r>
+  </si>
+  <si>
+    <t>38. Sadeem:</t>
+  </si>
+  <si>
+    <t>- Website: Sadeem®</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> IoT &amp; Business Analytics</t>
+    </r>
+  </si>
+  <si>
+    <t>39. Seeloz:</t>
+  </si>
+  <si>
+    <t>- Website: Seeloz - Data-Driven Decision-Making</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data analytics, ML.</t>
+    </r>
+  </si>
+  <si>
+    <t>40. Soho Square Solutions:</t>
+  </si>
+  <si>
+    <t>- Website: Home - Sohosquare</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> IR (Information Retrieval), ML, NLP (Natural - Language Processing).</t>
+    </r>
+  </si>
+  <si>
+    <t>41. Speakol:</t>
+  </si>
+  <si>
+    <t>- Website: speakol ads</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ML, DL, Big Data.</t>
+    </r>
+  </si>
+  <si>
+    <t>42. Sypron:</t>
+  </si>
+  <si>
+    <t>- Website: Dream . Think . Invent</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Big Data, ML, DL, Computer vision, NLP, General AI apps.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>43. Stratochem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>- Website: StratoChem Services</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data analysis, Image processing, data mining.</t>
+    </r>
+  </si>
+  <si>
+    <t>44. Tactful:</t>
+  </si>
+  <si>
+    <t>- Website: Home - Tactful.ai</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Conversational Agents, NLU, DL, Information Retrieval.</t>
+    </r>
+  </si>
+  <si>
+    <t>45. Tahrir news:</t>
+  </si>
+  <si>
+    <t>- Website: التحرير الإخبـاري</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Machine learning, Deep learning, NLP(Arabic &amp; English).</t>
+    </r>
+  </si>
+  <si>
+    <t>46. TA Telecom:</t>
+  </si>
+  <si>
+    <t>- Website: TA telecom - Big Data, Analytic Tools and Mobile Technologies</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Big data analytics.</t>
+    </r>
+  </si>
+  <si>
+    <t>47. TayRec :</t>
+  </si>
+  <si>
+    <t>- Website: Tanques y recubrimientos.</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quantitative data analysis, Big Data, ML.</t>
+    </r>
+  </si>
+  <si>
+    <t>48. Teradata:</t>
+  </si>
+  <si>
+    <t>- Website: Business Analytics, Hybrid Cloud &amp; Consulting | Teradata</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Big Data Analytics, machine learning and data mining.</t>
+    </r>
+  </si>
+  <si>
+    <t>49. The D. GmbH:</t>
+  </si>
+  <si>
+    <t>- Website: The D. GmbH</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> NLP, Chatbots, Computer Vision, Video Analysis.</t>
+    </r>
+  </si>
+  <si>
+    <t>50. Tpay:</t>
+  </si>
+  <si>
+    <t>- Website: TPAY</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Machine learning.</t>
+    </r>
+  </si>
+  <si>
+    <t>51. Trendak:</t>
+  </si>
+  <si>
+    <t>- Website: trendak</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Machine learning, Social Media analytics, NLP and Big data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>52. Trustious:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (The product is no longer under development I think)</t>
+    </r>
+  </si>
+  <si>
+    <t>- Website: Trustious</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> recommendation systems, NLP.</t>
+    </r>
+  </si>
+  <si>
+    <t>53. Usy tech:</t>
+  </si>
+  <si>
+    <t>- Website: USYTech </t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>NLP.</t>
+    </r>
+  </si>
+  <si>
+    <t>54. Valeo:</t>
+  </si>
+  <si>
+    <t>- Website: Valeo Egypt</t>
+  </si>
+  <si>
+    <t>- Interested in: ML, DL, reinforcement learning, Computer vision, Autonomous driving.</t>
+  </si>
+  <si>
+    <r>
+      <t>55. Vditory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>- Website: VDITORY</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> ML, Image processing, Computer vision.</t>
+    </r>
+  </si>
+  <si>
+    <t>56. Wego:</t>
+  </si>
+  <si>
+    <t>- Website: https://eg.wego.com/en</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data analysis, machine learning, recommendation systems.</t>
+    </r>
+  </si>
+  <si>
+    <t>57. WideBot:</t>
+  </si>
+  <si>
+    <t>- Website: Home - WideBot</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Chatbots, NLP</t>
+    </r>
+  </si>
+  <si>
+    <t>58. Wuzzuf:</t>
+  </si>
+  <si>
+    <t>- Website: Sign In | WUZZUF</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Machine learning, NLP(new project(s)), Search engines, Recommendation/Ranking systems and information retrieval.</t>
+    </r>
+  </si>
+  <si>
+    <t>59. Xtrava:</t>
+  </si>
+  <si>
+    <t>- Website: Xtrava</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Machine learning, Deep learning, Signal processing.</t>
+    </r>
+  </si>
+  <si>
+    <t>60. Yaoota!:</t>
+  </si>
+  <si>
+    <t>- Website: Yaoota!</t>
+  </si>
+  <si>
+    <r>
+      <t>- Interested in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282829"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Search engine, Big data, ML, NLP.</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF282829"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF282829"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF282829"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF282829"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +1434,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +1732,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="98.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="abmegypt.net" display="http://abmegypt.net/" xr:uid="{915D58B0-7E69-4615-B959-C20377FD97B8}"/>
+    <hyperlink ref="A6" r:id="rId2" tooltip="adam.ai" display="http://adam.ai/" xr:uid="{29490E20-795F-4D40-A4A0-4AC53E921563}"/>
+    <hyperlink ref="A10" r:id="rId3" tooltip="advansys-esc.com" display="http://advansys-esc.com/" xr:uid="{BFA5B0F8-0A51-46CC-BDAC-0BCDF3D28A0C}"/>
+    <hyperlink ref="A14" r:id="rId4" tooltip="www.affectiva.com" display="https://www.affectiva.com/" xr:uid="{8EE047BA-E096-4F41-8025-6801BCC05175}"/>
+    <hyperlink ref="A18" r:id="rId5" tooltip="www.agolo.com" display="https://www.agolo.com/" xr:uid="{403DE952-CCC7-47F6-8F56-9C911A906A1A}"/>
+    <hyperlink ref="A22" r:id="rId6" tooltip="www.arqamfc.com" display="https://www.arqamfc.com/" xr:uid="{BB23A034-F83D-46AD-A347-204B5A23559C}"/>
+    <hyperlink ref="A26" r:id="rId7" tooltip="www.avelabs.com" display="http://www.avelabs.com/" xr:uid="{84BD4775-0F1E-4E17-930C-265695FA5B96}"/>
+    <hyperlink ref="A30" r:id="rId8" tooltip="www.avidbeam.com" display="http://www.avidbeam.com/" xr:uid="{C5B1CF31-6477-4248-A4BB-5B5AEECA147D}"/>
+    <hyperlink ref="A34" r:id="rId9" tooltip="www.elvesapp.com" display="http://www.elvesapp.com/" xr:uid="{FD2BA029-9741-4ABF-99FC-F8A464860A10}"/>
+    <hyperlink ref="A38" r:id="rId10" tooltip="www.bee.com.eg" display="http://www.bee.com.eg/" xr:uid="{F84908CC-7B97-42AC-BFF1-AABD8F1CE052}"/>
+    <hyperlink ref="A42" r:id="rId11" tooltip="www.botler.io" display="http://www.botler.io/" xr:uid="{970E2180-23FF-4BA0-AFA4-8D4E97613BEF}"/>
+    <hyperlink ref="A46" r:id="rId12" tooltip="www.cequens.com" display="http://www.cequens.com/" xr:uid="{E629708D-40F7-4A07-8943-4637486F6817}"/>
+    <hyperlink ref="A50" r:id="rId13" tooltip="www.cognitev.com" display="http://www.cognitev.com/" xr:uid="{41AFC552-34D3-4838-9A71-5BF57D627BF5}"/>
+    <hyperlink ref="A54" r:id="rId14" tooltip="www.com-iot.com" display="https://www.com-iot.com/" xr:uid="{0D93063A-9C62-454F-BBD3-325D5CBD797D}"/>
+    <hyperlink ref="A58" r:id="rId15" tooltip="crowdanalyzer.com" display="https://crowdanalyzer.com/team" xr:uid="{AACB1635-FEA0-4C31-8E86-848A1988EB6C}"/>
+    <hyperlink ref="A62" r:id="rId16" tooltip="www.datagearbi.com" display="http://www.datagearbi.com/" xr:uid="{A9DBBF8A-6730-4717-AF65-93BAEF121F22}"/>
+    <hyperlink ref="A66" r:id="rId17" tooltip="www.dlctt.com" display="http://www.dlctt.com/" xr:uid="{2AE7FC1B-E2EC-479B-B91A-90D496093823}"/>
+    <hyperlink ref="A70" r:id="rId18" tooltip="www.elmenus.com" display="https://www.elmenus.com/" xr:uid="{EE908E11-E574-4FE3-8AA0-7510CD25C36D}"/>
+    <hyperlink ref="A74" r:id="rId19" tooltip="www.elvesapp.com" display="http://www.elvesapp.com/" xr:uid="{E47DECE8-E532-459F-979E-28238A6D348F}"/>
+    <hyperlink ref="A78" r:id="rId20" tooltip="www.heurolabs.com" display="http://www.heurolabs.com/" xr:uid="{B49F23EE-A813-4B4D-AF58-5666B46723DA}"/>
+    <hyperlink ref="A82" r:id="rId21" tooltip="hub43.com" display="http://hub43.com/" xr:uid="{163B52CB-4390-4A85-8BEB-1A0E3E2BB56F}"/>
+    <hyperlink ref="A86" r:id="rId22" tooltip="www-05.ibm.com" display="http://www-05.ibm.com/employment/eg-en/" xr:uid="{4006B925-3A82-4328-A13E-43CAD64A84C5}"/>
+    <hyperlink ref="A90" r:id="rId23" tooltip="incorta.com" display="https://incorta.com/" xr:uid="{06DD3F90-B35B-4613-81E2-6225A9369F01}"/>
+    <hyperlink ref="A94" r:id="rId24" tooltip="www.ivsystems-eg.com" display="http://www.ivsystems-eg.com/" xr:uid="{AB94B325-18B6-45F3-BE59-541F140017E1}"/>
+    <hyperlink ref="A98" r:id="rId25" tooltip="www.itworx.com" display="http://www.itworx.com/" xr:uid="{971F337F-DAC3-417E-A3CA-987AEA141781}"/>
+    <hyperlink ref="A102" r:id="rId26" tooltip="knowledgeofficer.com" display="http://knowledgeofficer.com/" xr:uid="{F9AB9AC2-C4B0-49CE-9B4D-578F90B7422F}"/>
+    <hyperlink ref="A106" r:id="rId27" tooltip="www.mediagatestudios.com" display="http://www.mediagatestudios.com/" xr:uid="{82DB8BE7-6CA2-4612-B152-75C3D5FB2402}"/>
+    <hyperlink ref="A110" r:id="rId28" tooltip="mendel.ai" display="https://mendel.ai/" xr:uid="{6595F053-DB2E-4922-A11A-068D452E8072}"/>
+    <hyperlink ref="A114" r:id="rId29" tooltip="www.microsoft.com" display="https://www.microsoft.com/en-us/research/group/advanced-technology-lab-cairo-2/" xr:uid="{43B5CA3D-CCDB-4739-A171-166CAD00E1FC}"/>
+    <hyperlink ref="A118" r:id="rId30" tooltip="www.omsme.com" display="http://www.omsme.com/" xr:uid="{AE051F14-01C6-4195-822F-0F16E4C77689}"/>
+    <hyperlink ref="A122" r:id="rId31" tooltip="optomatica.com" display="https://optomatica.com/" xr:uid="{3B9DC151-9883-4EA1-9671-018674910096}"/>
+    <hyperlink ref="A126" r:id="rId32" tooltip="www.oracle.com" display="https://www.oracle.com/index.html" xr:uid="{7D24341A-0A0C-495D-A73C-569AB3308830}"/>
+    <hyperlink ref="A130" r:id="rId33" tooltip="www.orange.eg" display="https://www.orange.eg/en/" xr:uid="{24BD1DE7-2C8A-41D7-9957-AF5E6F1CF820}"/>
+    <hyperlink ref="A134" r:id="rId34" tooltip="www.pixellion.net" display="http://www.pixellion.net/" xr:uid="{C24D89C3-8B60-462B-8A52-C520078C3306}"/>
+    <hyperlink ref="A138" r:id="rId35" tooltip="www.raisaenergy.com" display="http://www.raisaenergy.com/" xr:uid="{FF13463B-7B8E-40E2-A079-9C0261CAE182}"/>
+    <hyperlink ref="A142" r:id="rId36" tooltip="www.rdi-eg.com" display="http://www.rdi-eg.com/" xr:uid="{859E413B-C7AD-4F67-AC61-CAE4336D1F4C}"/>
+    <hyperlink ref="A146" r:id="rId37" tooltip="www.f6s.com" display="https://www.f6s.com/rology" xr:uid="{758B96F9-D52A-4404-9242-825AA27ADEB2}"/>
+    <hyperlink ref="A150" r:id="rId38" tooltip="www.sadeemknowledge.com" display="http://www.sadeemknowledge.com/" xr:uid="{35C286E6-7102-424C-BE1B-3CEC848F3624}"/>
+    <hyperlink ref="A154" r:id="rId39" tooltip="www.seeloz.com" display="http://www.seeloz.com/" xr:uid="{74B84A62-964B-470B-8E99-F4314AE85BF2}"/>
+    <hyperlink ref="A158" r:id="rId40" tooltip="sohosquaresolutions.com" display="https://sohosquaresolutions.com/" xr:uid="{F73F8FF6-27C9-4737-9A76-CB40F927AC30}"/>
+    <hyperlink ref="A162" r:id="rId41" tooltip="cdn.speakol.com" display="https://cdn.speakol.com/ar" xr:uid="{E9D232A3-B81E-4FA1-8568-9C2B89ED39B6}"/>
+    <hyperlink ref="A166" r:id="rId42" tooltip="www.sypron.com" display="http://www.sypron.com/" xr:uid="{F08EA2DC-C3BD-4C6E-8008-1E3D803BE71F}"/>
+    <hyperlink ref="A170" r:id="rId43" tooltip="stratochem.com" display="http://stratochem.com/" xr:uid="{1CC3E423-C73C-41DC-9F98-F653700979E6}"/>
+    <hyperlink ref="A174" r:id="rId44" location="footerFAQ" tooltip="www.tactful.ai" display="https://www.tactful.ai/ - footerFAQ" xr:uid="{BAE0EA23-638B-4F4E-A1E7-62E669DB5ED8}"/>
+    <hyperlink ref="A178" r:id="rId45" tooltip="www.tahrirnews.com" display="http://www.tahrirnews.com/" xr:uid="{D1349C06-5300-4F6F-AACA-97E782BE75E9}"/>
+    <hyperlink ref="A182" r:id="rId46" tooltip="www.tatelecom.com" display="http://www.tatelecom.com/" xr:uid="{3266DA16-682B-4C0A-B9D4-5C09B74A341A}"/>
+    <hyperlink ref="A186" r:id="rId47" tooltip="www.tayrec.com" display="http://www.tayrec.com/" xr:uid="{52795821-C4D1-48C7-B8C7-54D44CE855FD}"/>
+    <hyperlink ref="A190" r:id="rId48" tooltip="www.teradata.com" display="http://www.teradata.com/" xr:uid="{61B1C234-04D6-4686-852D-29F13A7393FE}"/>
+    <hyperlink ref="A194" r:id="rId49" location="%2F" tooltip="thed.io" display="https://thed.io/ - %2F" xr:uid="{91B696D5-67FB-4B77-8E6A-1B05A03E92A0}"/>
+    <hyperlink ref="A198" r:id="rId50" tooltip="www.tpay.me" display="http://www.tpay.me/" xr:uid="{0FCC0E35-5752-4D4F-997C-66D9BD9A5AC7}"/>
+    <hyperlink ref="A202" r:id="rId51" tooltip="trendak.com" display="http://trendak.com/" xr:uid="{D80FD2D6-9190-4793-8890-6E777C2DAA24}"/>
+    <hyperlink ref="A206" r:id="rId52" tooltip="www.trustious.com" display="http://www.trustious.com/" xr:uid="{F46FEC0C-21DE-475F-A228-C1672AAD1CDE}"/>
+    <hyperlink ref="A210" r:id="rId53" tooltip="www.usytech.com" display="http://www.usytech.com/" xr:uid="{5D889A96-6CDA-490F-865F-9D89F1332C3E}"/>
+    <hyperlink ref="A214" r:id="rId54" tooltip="www.vias-egypt-careers.com" display="http://www.vias-egypt-careers.com/" xr:uid="{8A37165D-D6B3-4EBA-8947-7E4599891370}"/>
+    <hyperlink ref="A215" r:id="rId55" tooltip="www.vias-egypt-careers.com" display="http://www.vias-egypt-careers.com/" xr:uid="{11EB4313-AC5D-4F29-A743-E64A1994E677}"/>
+    <hyperlink ref="A218" r:id="rId56" tooltip="www.vditory.com" display="http://www.vditory.com/" xr:uid="{DC28A580-A596-46B4-810D-C2B2A223EC54}"/>
+    <hyperlink ref="A222" r:id="rId57" tooltip="eg.wego.com" display="https://eg.wego.com/en" xr:uid="{435D7301-7757-43F0-82D0-D237C841E34C}"/>
+    <hyperlink ref="A226" r:id="rId58" tooltip="widebot.com" display="https://widebot.com/widebot/" xr:uid="{F82ADB6A-88EA-4278-8B3E-0374C185F8B5}"/>
+    <hyperlink ref="A230" r:id="rId59" tooltip="wuzzuf.net" display="https://wuzzuf.net/profile/dashboard" xr:uid="{292075B1-288E-4364-8774-84C55B37F7DF}"/>
+    <hyperlink ref="A234" r:id="rId60" tooltip="xtrava.co" display="http://xtrava.co/" xr:uid="{A75A35A7-9F8A-49CC-9FB7-3357E5FC9CB7}"/>
+    <hyperlink ref="A238" r:id="rId61" tooltip="yaoota.com" display="https://yaoota.com/en-eg/" xr:uid="{3BC1BEF5-04A9-4C6A-83D6-5E461E0574DC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>